--- a/BMS-Master/foxBMS_BMS-Master_BOM.xlsx
+++ b/BMS-Master/foxBMS_BMS-Master_BOM.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="360" yWindow="105" windowWidth="21180" windowHeight="14190"/>
   </bookViews>
   <sheets>
-    <sheet name="foxBMS_BMS-Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="SatzCnt">#REF!</definedName>
@@ -1391,6 +1394,37 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+      <sheetName val="Tabelle2 "/>
+      <sheetName val="Kal-RoHS"/>
+      <sheetName val="Bauteile"/>
+      <sheetName val="test"/>
+      <sheetName val="alle"/>
+      <sheetName val="Kal"/>
+      <sheetName val="Bauteile (2)"/>
+      <sheetName val="#BEZUG"/>
+      <sheetName val="#REF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
@@ -1680,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
